--- a/Digital twin Vruchtenbuurt/_mvlv_transformers.xlsx
+++ b/Digital twin Vruchtenbuurt/_mvlv_transformers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Digital-twin-Vruchtenbuurt\Digital twin Vruchtenbuurt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE389B-5374-454A-A12C-FF61E56285D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BEF9A-A527-45DB-9EF0-9C639ACBA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mvlv_transformers" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>currentsta</t>
   </si>
@@ -442,21 +442,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="4" max="8" width="15"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="1028" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -509,12 +509,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -524,18 +524,18 @@
       </c>
       <c r="I2" s="1"/>
       <c r="P2">
-        <v>4.2595651048224719</v>
+        <v>4.2556756112604193</v>
       </c>
       <c r="Q2">
-        <v>52.074862815931773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.069640679836503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -545,18 +545,18 @@
       </c>
       <c r="I3" s="1"/>
       <c r="P3">
-        <v>4.2556756112604193</v>
+        <v>4.2504343198448939</v>
       </c>
       <c r="Q3">
-        <v>52.069640679836503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.065858365972787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -566,18 +566,18 @@
       </c>
       <c r="I4" s="1"/>
       <c r="P4">
-        <v>4.2504343198448939</v>
+        <v>4.2533659152766052</v>
       </c>
       <c r="Q4">
-        <v>52.065858365972787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.066936276517723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -585,20 +585,19 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="P5">
-        <v>4.2561968255428262</v>
+        <v>4.2607961296202186</v>
       </c>
       <c r="Q5">
-        <v>52.066224050268133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.069760956016438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -606,20 +605,19 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="P6">
-        <v>4.2573391557940292</v>
+        <v>4.251365019123015</v>
       </c>
       <c r="Q6">
-        <v>52.073359518819423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.068279109027173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -627,20 +625,19 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="P7">
-        <v>4.2460484594831502</v>
+        <v>4.2565297933653516</v>
       </c>
       <c r="Q7">
-        <v>52.068702817609108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.068160995780453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -648,20 +645,19 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="P8">
-        <v>4.2533659152766052</v>
+        <v>4.2641076186290618</v>
       </c>
       <c r="Q8">
-        <v>52.066936276517723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.069137597547979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -670,18 +666,18 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>4.2607961296202186</v>
+        <v>4.2480486692873098</v>
       </c>
       <c r="Q9">
-        <v>52.069760956016438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>52.067498885580427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -690,149 +686,9 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>4.251365019123015</v>
+        <v>4.2602249565915011</v>
       </c>
       <c r="Q10">
-        <v>52.068279109027173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11">
-        <v>4.2632719918895692</v>
-      </c>
-      <c r="Q11">
-        <v>52.073288517847438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12">
-        <v>4.2565297933653516</v>
-      </c>
-      <c r="Q12">
-        <v>52.068160995780453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13">
-        <v>4.2576661555154933</v>
-      </c>
-      <c r="Q13">
-        <v>52.073727541593733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14">
-        <v>4.2641076186290618</v>
-      </c>
-      <c r="Q14">
-        <v>52.069137597547979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15">
-        <v>4.2506584028344152</v>
-      </c>
-      <c r="Q15">
-        <v>52.069468228744427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16">
-        <v>4.2480486692873098</v>
-      </c>
-      <c r="Q16">
-        <v>52.067498885580427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17">
-        <v>4.2602249565915011</v>
-      </c>
-      <c r="Q17">
         <v>52.071691458640771</v>
       </c>
     </row>
